--- a/biology/Botanique/Rhododendron_à_grandes_feuilles/Rhododendron_à_grandes_feuilles.xlsx
+++ b/biology/Botanique/Rhododendron_à_grandes_feuilles/Rhododendron_à_grandes_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rhododendron_%C3%A0_grandes_feuilles</t>
+          <t>Rhododendron_à_grandes_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron macrophyllum est une espèce de plantes à fleurs de la famille des Ericaceae.  Elle fait partie des Rhododendron.
 C'est un arbuste natif de l’Ouest de l’Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rhododendron_%C3%A0_grandes_feuilles</t>
+          <t>Rhododendron_à_grandes_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la retrouve de la Colombie-Britannique (Canada) jusqu'à la baie de Monterey en Californie. Elle croît essentiellement dans les zones proches de l’océan.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rhododendron_%C3%A0_grandes_feuilles</t>
+          <t>Rhododendron_à_grandes_feuilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure entre 2 mètres et 9 mètres de haut. Ses feuilles font entre 7 cm et 23 cm pour 3 cm à 7 cm de large. Les fleurs font entre 3 cm et 4 cm environ de long. La corolle possède cinq pétales et est de couleur rose avec parfois quelques variantes. Ces arbustes sont sempervirents.
 Ils poussent dans des zones dégagées comme le long des routes ou dans des zones déforestées ou anciennement incendiées. Ces arbres ont, en outre, la faculté de repousser à partir de la souche après un incendie.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rhododendron_%C3%A0_grandes_feuilles</t>
+          <t>Rhododendron_à_grandes_feuilles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archibald Menzies découvrit cette espèce, ainsi qu'un arbousier, Arbutus menziesii, en mai 1792 lorsque George Vancouver et lui firent leur second débarquement après avoir quitté l’île d’Hawaii[1]. Des graines furent envoyées en Angleterre, en 1850, par William Lobb. Néanmoins, cette espèce, en raison de la difficulté à la faire pousser en culture, a été boudée des horticulteurs en faveur d’autres espèces parfois plus décoratives.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archibald Menzies découvrit cette espèce, ainsi qu'un arbousier, Arbutus menziesii, en mai 1792 lorsque George Vancouver et lui firent leur second débarquement après avoir quitté l’île d’Hawaii. Des graines furent envoyées en Angleterre, en 1850, par William Lobb. Néanmoins, cette espèce, en raison de la difficulté à la faire pousser en culture, a été boudée des horticulteurs en faveur d’autres espèces parfois plus décoratives.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rhododendron_%C3%A0_grandes_feuilles</t>
+          <t>Rhododendron_à_grandes_feuilles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Symbole</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rhododendron est la fleur symbole de l’État du Washington aux États-Unis.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rhododendron_%C3%A0_grandes_feuilles</t>
+          <t>Rhododendron_à_grandes_feuilles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rhododendron californicum Hook.</t>
         </is>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rhododendron_%C3%A0_grandes_feuilles</t>
+          <t>Rhododendron_à_grandes_feuilles</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Davidian, H. H. The Rhododendron Species, Volume III - Elepidotes continued. 1992.  Timber Press.   (ISBN 978-0-88192-168-7).
 (en) Cox, Peter A. &amp; Kenneth N.E. The Encyclopedia of Rhododendron Species. 1997. Glendoick Publishing.  (ISBN 978-0-9530533-0-8).</t>
